--- a/app/templates/report/propietarios.xlsx
+++ b/app/templates/report/propietarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878B312E-D803-4056-A010-5AAC42C75C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20BD89E-18BC-4606-905F-4D5EAAD88CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,10 +86,10 @@
 rectificativa</t>
   </si>
   <si>
-    <t>Prefijo SAP</t>
-  </si>
-  <si>
     <t>Propietarios</t>
+  </si>
+  <si>
+    <t>Código SAP</t>
   </si>
 </sst>
 </file>
@@ -184,7 +184,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -192,8 +192,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,15 +598,15 @@
     <col min="12" max="12" width="10.28515625" style="1" customWidth="1"/>
     <col min="13" max="15" width="13" style="1" customWidth="1"/>
     <col min="16" max="16" width="41.85546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="24.85546875" style="5"/>
+    <col min="17" max="16384" width="24.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -642,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>13</v>

--- a/app/templates/report/propietarios.xlsx
+++ b/app/templates/report/propietarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07dae84afc6a2e79/Development/projects/ciber/cotown/back/app/templates/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20BD89E-18BC-4606-905F-4D5EAAD88CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E20BD89E-18BC-4606-905F-4D5EAAD88CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{929E0A22-EE50-45D8-A336-543C6FBC09E7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,13 +187,13 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -602,77 +602,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:16" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:P2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/app/templates/report/propietarios.xlsx
+++ b/app/templates/report/propietarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07dae84afc6a2e79/Development/projects/ciber/cotown/back/app/templates/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E20BD89E-18BC-4606-905F-4D5EAAD88CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{929E0A22-EE50-45D8-A336-543C6FBC09E7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC80C9C4-523B-4D08-AD0F-63C77B53F6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Propietarios" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Propietarios!$A$2:$P$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Propietarios!$A$2:$Q$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Tipo de proveedor</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Código SAP</t>
+  </si>
+  <si>
+    <t>IBAN</t>
   </si>
 </sst>
 </file>
@@ -283,9 +286,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -323,7 +326,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -429,7 +432,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -571,7 +574,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -579,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,17 +599,18 @@
     <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="31" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" style="1" customWidth="1"/>
-    <col min="13" max="15" width="13" style="1" customWidth="1"/>
-    <col min="16" max="16" width="41.85546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="24.85546875" style="1"/>
+    <col min="13" max="13" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="13" style="1" customWidth="1"/>
+    <col min="17" max="17" width="41.85546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="24.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -644,19 +648,22 @@
         <v>16</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -673,9 +680,10 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:Q2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
